--- a/main/ig/all-profiles.xlsx
+++ b/main/ig/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-21T08:28:42+00:00</t>
+    <t>2024-03-21T08:38:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/all-profiles.xlsx
+++ b/main/ig/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-21T08:38:30+00:00</t>
+    <t>2024-03-21T08:38:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/all-profiles.xlsx
+++ b/main/ig/all-profiles.xlsx
@@ -48,7 +48,7 @@
     <t>Title</t>
   </si>
   <si>
-    <t>Observation Telesurveillance</t>
+    <t>Profil Observation pour la telesurveillance</t>
   </si>
   <si>
     <t>Status</t>
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-21T08:38:54+00:00</t>
+    <t>2024-03-22T13:10:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/all-profiles.xlsx
+++ b/main/ig/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-22T13:10:55+00:00</t>
+    <t>2024-03-22T13:32:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/all-profiles.xlsx
+++ b/main/ig/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-22T13:32:14+00:00</t>
+    <t>2024-04-22T13:23:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -75,7 +75,7 @@
     <t>Contact</t>
   </si>
   <si>
-    <t>No display for ContactDetail</t>
+    <t>ANS (https://esante.gouv.fr)</t>
   </si>
   <si>
     <t>Jurisdiction</t>
@@ -559,8 +559,8 @@
 </t>
   </si>
   <si>
-    <t>recommandé : Grande catégorie qui peut servir à identifier les différentes sources d'observations en télésurveillance: vital-sign : constantes physiologiques, signes vitaux, mesures | laboratory : résultat de labo (hors périmètre de ce profil) 
-survey : réponse à questionnaire ou score | exam : résultat d'examen clinique (hors périmètre TLS) | activity : activité physique (#pas, #longueurs de piscine, ...)</t>
+    <t>recommandé : Grande catégorie qui peut servir à identifier les différentes sources d'observations en télésurveillance: vital-sign : constantes physiologiques, signes vitaux, mesures | 
+survey : réponse à questionnaire ou score |  activity : activité physique (#pas, #longueurs de piscine, ...)</t>
   </si>
   <si>
     <t>A code that classifies the general type of observation being made.</t>
@@ -672,7 +672,7 @@
 Period</t>
   </si>
   <si>
-    <t>requis : le temps clinique ou physiologique de l'observation : par exemple la journée pour un comptage de pas, ou la date et heure de prélèvement pour un résultat de labo, ou la date et heure de pesage</t>
+    <t>requis : le temps clinique ou physiologique de l'observation : par exemple la journée pour un comptage de pas, ou la date et heure de pesage</t>
   </si>
   <si>
     <t>The time or time-period the observed value is asserted as being true. For biological subjects - e.g. human patients - this is usually called the "physiologically relevant time". This is usually either the time of the procedure or of specimen collection, but very often the source of the date/time is not known, only the date/time itself.</t>

--- a/main/ig/all-profiles.xlsx
+++ b/main/ig/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-22T13:23:40+00:00</t>
+    <t>2024-04-22T14:23:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/all-profiles.xlsx
+++ b/main/ig/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-22T14:23:17+00:00</t>
+    <t>2024-04-25T08:29:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/all-profiles.xlsx
+++ b/main/ig/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-25T08:29:58+00:00</t>
+    <t>2024-05-06T08:47:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/all-profiles.xlsx
+++ b/main/ig/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-06T08:47:22+00:00</t>
+    <t>2024-06-05T15:37:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/all-profiles.xlsx
+++ b/main/ig/all-profiles.xlsx
@@ -36,7 +36,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.0</t>
+    <t>0.1.0-ballot</t>
   </si>
   <si>
     <t>Name</t>
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-05T15:37:27+00:00</t>
+    <t>2024-06-06T09:48:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/all-profiles.xlsx
+++ b/main/ig/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-06T09:48:48+00:00</t>
+    <t>2024-06-17T15:37:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/all-profiles.xlsx
+++ b/main/ig/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-17T15:37:46+00:00</t>
+    <t>2024-06-17T15:38:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/all-profiles.xlsx
+++ b/main/ig/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-17T15:38:51+00:00</t>
+    <t>2024-06-17T15:39:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/all-profiles.xlsx
+++ b/main/ig/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-17T15:39:30+00:00</t>
+    <t>2024-06-18T07:42:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/all-profiles.xlsx
+++ b/main/ig/all-profiles.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1783" uniqueCount="364">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1777" uniqueCount="353">
   <si>
     <t>Property</t>
   </si>
@@ -36,7 +36,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.0-ballot</t>
+    <t>0.1.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -54,7 +54,7 @@
     <t>Status</t>
   </si>
   <si>
-    <t>draft</t>
+    <t>active</t>
   </si>
   <si>
     <t>Experimental</t>
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-22T18:51:04+00:00</t>
+    <t>2024-09-23T10:26:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -267,7 +267,7 @@
   </si>
   <si>
     <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}obs-7:If Observation.code is the same as an Observation.component.code then the value element associated with the code SHALL NOT be present {value.empty() or component.code.where(coding.intersect(%resource.code.coding).exists()).empty()}obs-6:dataAbsentReason SHALL only be present if Observation.value[x] is not present {dataAbsentReason.empty() or value.empty()}</t>
+dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}obs-6:dataAbsentReason SHALL only be present if Observation.value[x] is not present {dataAbsentReason.empty() or value.empty()}obs-7:If Observation.code is the same as an Observation.component.code then the value element associated with the code SHALL NOT be present {value.empty() or component.code.where(coding.intersect(%resource.code.coding).exists()).empty()}</t>
   </si>
   <si>
     <t>Observation.id</t>
@@ -311,10 +311,6 @@
     <t>Resource.meta</t>
   </si>
   <si>
-    <t xml:space="preserve">ele-1
-</t>
-  </si>
-  <si>
     <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
 </t>
   </si>
@@ -432,16 +428,6 @@
     <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
   </si>
   <si>
-    <t xml:space="preserve">value:url}
-</t>
-  </si>
-  <si>
-    <t>Extensions are always sliced by (at least) url</t>
-  </si>
-  <si>
-    <t>open</t>
-  </si>
-  <si>
     <t>DomainResource.extension</t>
   </si>
   <si>
@@ -498,14 +484,7 @@
     <t>A plan, proposal or order that is fulfilled in whole or in part by this event.  For example, a MedicationRequest may require a patient to have laboratory test performed before  it is dispensed.</t>
   </si>
   <si>
-    <t>References SHALL be a reference to an actual FHIR resource, and SHALL be resolveable (allowing for access control, temporary unavailability, etc.). Resolution can be either by retrieval from the URL, or, where applicable by resource type, by treating an absolute reference as a canonical URL and looking it up in a local registry/repository.</t>
-  </si>
-  <si>
     <t>Allows tracing of authorization for the event and tracking whether proposals/recommendations were acted upon.</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-ref-1:SHALL have a contained resource if a local reference is provided {reference.startsWith('#').not() or (reference.substring(1).trace('url') in %rootResource.contained.id.trace('ids'))}</t>
   </si>
   <si>
     <t>Observation.partOf</t>
@@ -735,8 +714,8 @@
     <t>An observation exists to have a value, though it might not if it is in error, or if it represents a group of observations.</t>
   </si>
   <si>
-    <t>ele-1
-obs-7</t>
+    <t xml:space="preserve">obs-7
+</t>
   </si>
   <si>
     <t>Observation.dataAbsentReason</t>
@@ -764,8 +743,8 @@
     <t>http://hl7.org/fhir/ValueSet/data-absent-reason</t>
   </si>
   <si>
-    <t>ele-1
-obs-6</t>
+    <t xml:space="preserve">obs-6
+</t>
   </si>
   <si>
     <t>Observation.interpretation</t>
@@ -962,15 +941,8 @@
     <t>The value of the low bound of the reference range.  The low bound of the reference range endpoint is inclusive of the value (e.g.  reference range is &gt;=5 - &lt;=9). If the low bound is omitted,  it is assumed to be meaningless (e.g. reference range is &lt;=2.3).</t>
   </si>
   <si>
-    <t>The context of use may frequently define what kind of quantity this is and therefore what kind of units can be used. The context of use may also restrict the values for the comparator.</t>
-  </si>
-  <si>
-    <t>ele-1
-obs-3</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-qty-3:If a code for the unit is present, the system SHALL also be present {code.empty() or system.exists()}sqty-1:The comparator is not used on a SimpleQuantity {comparator.empty()}</t>
+    <t xml:space="preserve">obs-3
+</t>
   </si>
   <si>
     <t>Observation.referenceRange.high</t>
@@ -1037,16 +1009,9 @@
     <t>The age at which this reference range is applicable. This is a neonatal age (e.g. number of weeks at term) if the meaning says so.</t>
   </si>
   <si>
-    <t>The stated low and high value are assumed to have arbitrarily high precision when it comes to determining which values are in the range. I.e. 1.99 is not in the range 2 -&gt; 3.</t>
-  </si>
-  <si>
     <t>Some analytes vary greatly over age.</t>
   </si>
   <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-rng-2:If present, low SHALL have a lower value than high {low.empty() or high.empty() or (low &lt;= high)}</t>
-  </si>
-  <si>
     <t>Observation.referenceRange.text</t>
   </si>
   <si>
@@ -1054,9 +1019,6 @@
   </si>
   <si>
     <t>Text based reference range in an observation which may be used when a quantitative range is not appropriate for an observation.  An example would be a reference value of "Negative" or a list or table of "normals".</t>
-  </si>
-  <si>
-    <t>Note that FHIR strings SHALL NOT exceed 1MB in size</t>
   </si>
   <si>
     <t>Observation.hasMember</t>
@@ -1512,7 +1474,7 @@
     <col min="27" max="27" width="60.2890625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="22.71875" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="42.03515625" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="20.59375" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="17.21484375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="32" max="32" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="33" max="33" width="41.01953125" customWidth="true" bestFit="true" hidden="true"/>
@@ -1940,10 +1902,10 @@
         <v>85</v>
       </c>
       <c r="AJ4" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK4" t="s" s="2">
         <v>97</v>
-      </c>
-      <c r="AK4" t="s" s="2">
-        <v>98</v>
       </c>
     </row>
     <row r="5">
@@ -1951,10 +1913,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C5" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" t="s" s="2">
@@ -1977,16 +1939,16 @@
         <v>86</v>
       </c>
       <c r="L5" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="M5" t="s" s="2">
         <v>100</v>
       </c>
-      <c r="M5" t="s" s="2">
+      <c r="N5" t="s" s="2">
         <v>101</v>
       </c>
-      <c r="N5" t="s" s="2">
+      <c r="O5" t="s" s="2">
         <v>102</v>
-      </c>
-      <c r="O5" t="s" s="2">
-        <v>103</v>
       </c>
       <c r="P5" s="2"/>
       <c r="Q5" t="s" s="2">
@@ -2036,7 +1998,7 @@
         <v>78</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AH5" t="s" s="2">
         <v>76</v>
@@ -2045,10 +2007,10 @@
         <v>85</v>
       </c>
       <c r="AJ5" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK5" t="s" s="2">
         <v>97</v>
-      </c>
-      <c r="AK5" t="s" s="2">
-        <v>98</v>
       </c>
     </row>
     <row r="6">
@@ -2056,10 +2018,10 @@
         <v>3</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C6" t="s" s="2">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" t="s" s="2">
@@ -2082,16 +2044,16 @@
         <v>78</v>
       </c>
       <c r="L6" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="M6" t="s" s="2">
         <v>106</v>
       </c>
-      <c r="M6" t="s" s="2">
+      <c r="N6" t="s" s="2">
         <v>107</v>
       </c>
-      <c r="N6" t="s" s="2">
+      <c r="O6" t="s" s="2">
         <v>108</v>
-      </c>
-      <c r="O6" t="s" s="2">
-        <v>109</v>
       </c>
       <c r="P6" s="2"/>
       <c r="Q6" t="s" s="2">
@@ -2117,31 +2079,31 @@
         <v>78</v>
       </c>
       <c r="Y6" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="Z6" t="s" s="2">
         <v>110</v>
       </c>
-      <c r="Z6" t="s" s="2">
+      <c r="AA6" t="s" s="2">
         <v>111</v>
       </c>
-      <c r="AA6" t="s" s="2">
+      <c r="AB6" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC6" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD6" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE6" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF6" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG6" t="s" s="2">
         <v>112</v>
-      </c>
-      <c r="AB6" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC6" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD6" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE6" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF6" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG6" t="s" s="2">
-        <v>113</v>
       </c>
       <c r="AH6" t="s" s="2">
         <v>76</v>
@@ -2150,10 +2112,10 @@
         <v>85</v>
       </c>
       <c r="AJ6" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK6" t="s" s="2">
         <v>97</v>
-      </c>
-      <c r="AK6" t="s" s="2">
-        <v>98</v>
       </c>
     </row>
     <row r="7">
@@ -2161,14 +2123,14 @@
         <v>3</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C7" t="s" s="2">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" t="s" s="2">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F7" s="2"/>
       <c r="G7" t="s" s="2">
@@ -2187,16 +2149,16 @@
         <v>78</v>
       </c>
       <c r="L7" t="s" s="2">
+        <v>115</v>
+      </c>
+      <c r="M7" t="s" s="2">
         <v>116</v>
       </c>
-      <c r="M7" t="s" s="2">
+      <c r="N7" t="s" s="2">
         <v>117</v>
       </c>
-      <c r="N7" t="s" s="2">
+      <c r="O7" t="s" s="2">
         <v>118</v>
-      </c>
-      <c r="O7" t="s" s="2">
-        <v>119</v>
       </c>
       <c r="P7" s="2"/>
       <c r="Q7" t="s" s="2">
@@ -2246,7 +2208,7 @@
         <v>78</v>
       </c>
       <c r="AG7" t="s" s="2">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="AH7" t="s" s="2">
         <v>76</v>
@@ -2255,10 +2217,10 @@
         <v>85</v>
       </c>
       <c r="AJ7" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK7" t="s" s="2">
         <v>97</v>
-      </c>
-      <c r="AK7" t="s" s="2">
-        <v>98</v>
       </c>
     </row>
     <row r="8">
@@ -2266,14 +2228,14 @@
         <v>3</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C8" t="s" s="2">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" t="s" s="2">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F8" s="2"/>
       <c r="G8" t="s" s="2">
@@ -2292,16 +2254,16 @@
         <v>78</v>
       </c>
       <c r="L8" t="s" s="2">
+        <v>122</v>
+      </c>
+      <c r="M8" t="s" s="2">
         <v>123</v>
       </c>
-      <c r="M8" t="s" s="2">
+      <c r="N8" t="s" s="2">
         <v>124</v>
       </c>
-      <c r="N8" t="s" s="2">
+      <c r="O8" t="s" s="2">
         <v>125</v>
-      </c>
-      <c r="O8" t="s" s="2">
-        <v>126</v>
       </c>
       <c r="P8" s="2"/>
       <c r="Q8" t="s" s="2">
@@ -2351,7 +2313,7 @@
         <v>78</v>
       </c>
       <c r="AG8" t="s" s="2">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AH8" t="s" s="2">
         <v>76</v>
@@ -2371,14 +2333,14 @@
         <v>3</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C9" t="s" s="2">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" t="s" s="2">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F9" s="2"/>
       <c r="G9" t="s" s="2">
@@ -2397,16 +2359,16 @@
         <v>78</v>
       </c>
       <c r="L9" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="M9" t="s" s="2">
         <v>130</v>
       </c>
-      <c r="M9" t="s" s="2">
+      <c r="N9" t="s" s="2">
         <v>131</v>
       </c>
-      <c r="N9" t="s" s="2">
+      <c r="O9" t="s" s="2">
         <v>132</v>
-      </c>
-      <c r="O9" t="s" s="2">
-        <v>133</v>
       </c>
       <c r="P9" s="2"/>
       <c r="Q9" t="s" s="2">
@@ -2444,19 +2406,19 @@
         <v>78</v>
       </c>
       <c r="AC9" t="s" s="2">
-        <v>134</v>
+        <v>78</v>
       </c>
       <c r="AD9" t="s" s="2">
-        <v>135</v>
+        <v>78</v>
       </c>
       <c r="AE9" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>136</v>
+        <v>78</v>
       </c>
       <c r="AG9" t="s" s="2">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="AH9" t="s" s="2">
         <v>76</v>
@@ -2465,10 +2427,10 @@
         <v>77</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>97</v>
+        <v>78</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>138</v>
+        <v>134</v>
       </c>
     </row>
     <row r="10">
@@ -2476,14 +2438,14 @@
         <v>3</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="C10" t="s" s="2">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" t="s" s="2">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F10" s="2"/>
       <c r="G10" t="s" s="2">
@@ -2502,19 +2464,19 @@
         <v>78</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="N10" t="s" s="2">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="O10" t="s" s="2">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="P10" t="s" s="2">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="Q10" t="s" s="2">
         <v>78</v>
@@ -2551,19 +2513,19 @@
         <v>78</v>
       </c>
       <c r="AC10" t="s" s="2">
-        <v>134</v>
+        <v>78</v>
       </c>
       <c r="AD10" t="s" s="2">
-        <v>135</v>
+        <v>78</v>
       </c>
       <c r="AE10" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>136</v>
+        <v>78</v>
       </c>
       <c r="AG10" t="s" s="2">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="AH10" t="s" s="2">
         <v>76</v>
@@ -2572,10 +2534,10 @@
         <v>77</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>97</v>
+        <v>78</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>138</v>
+        <v>134</v>
       </c>
     </row>
     <row r="11">
@@ -2583,10 +2545,10 @@
         <v>3</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C11" t="s" s="2">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" t="s" s="2">
@@ -2609,17 +2571,17 @@
         <v>86</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="N11" t="s" s="2">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="O11" s="2"/>
       <c r="P11" t="s" s="2">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="Q11" t="s" s="2">
         <v>78</v>
@@ -2668,7 +2630,7 @@
         <v>78</v>
       </c>
       <c r="AG11" t="s" s="2">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="AH11" t="s" s="2">
         <v>76</v>
@@ -2677,10 +2639,10 @@
         <v>77</v>
       </c>
       <c r="AJ11" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK11" t="s" s="2">
         <v>97</v>
-      </c>
-      <c r="AK11" t="s" s="2">
-        <v>98</v>
       </c>
     </row>
     <row r="12">
@@ -2688,14 +2650,14 @@
         <v>3</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="C12" t="s" s="2">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" t="s" s="2">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="F12" s="2"/>
       <c r="G12" t="s" s="2">
@@ -2714,19 +2676,17 @@
         <v>86</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="N12" t="s" s="2">
-        <v>153</v>
-      </c>
-      <c r="O12" t="s" s="2">
-        <v>154</v>
-      </c>
+        <v>149</v>
+      </c>
+      <c r="O12" s="2"/>
       <c r="P12" t="s" s="2">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="Q12" t="s" s="2">
         <v>78</v>
@@ -2775,7 +2735,7 @@
         <v>78</v>
       </c>
       <c r="AG12" t="s" s="2">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="AH12" t="s" s="2">
         <v>76</v>
@@ -2784,10 +2744,10 @@
         <v>77</v>
       </c>
       <c r="AJ12" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK12" t="s" s="2">
         <v>97</v>
-      </c>
-      <c r="AK12" t="s" s="2">
-        <v>156</v>
       </c>
     </row>
     <row r="13">
@@ -2795,14 +2755,14 @@
         <v>3</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="C13" t="s" s="2">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" t="s" s="2">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="F13" s="2"/>
       <c r="G13" t="s" s="2">
@@ -2821,16 +2781,16 @@
         <v>86</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="N13" t="s" s="2">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="O13" t="s" s="2">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="P13" s="2"/>
       <c r="Q13" t="s" s="2">
@@ -2880,7 +2840,7 @@
         <v>78</v>
       </c>
       <c r="AG13" t="s" s="2">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="AH13" t="s" s="2">
         <v>76</v>
@@ -2889,10 +2849,10 @@
         <v>77</v>
       </c>
       <c r="AJ13" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK13" t="s" s="2">
         <v>97</v>
-      </c>
-      <c r="AK13" t="s" s="2">
-        <v>156</v>
       </c>
     </row>
     <row r="14">
@@ -2900,10 +2860,10 @@
         <v>3</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="C14" t="s" s="2">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" t="s" s="2">
@@ -2926,19 +2886,19 @@
         <v>86</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="O14" t="s" s="2">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="P14" t="s" s="2">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="Q14" t="s" s="2">
         <v>78</v>
@@ -2963,13 +2923,13 @@
         <v>78</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="Z14" t="s" s="2">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="AA14" t="s" s="2">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="AB14" t="s" s="2">
         <v>78</v>
@@ -2987,7 +2947,7 @@
         <v>78</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="AH14" t="s" s="2">
         <v>85</v>
@@ -2996,10 +2956,10 @@
         <v>85</v>
       </c>
       <c r="AJ14" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK14" t="s" s="2">
         <v>97</v>
-      </c>
-      <c r="AK14" t="s" s="2">
-        <v>98</v>
       </c>
     </row>
     <row r="15">
@@ -3007,10 +2967,10 @@
         <v>3</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="C15" t="s" s="2">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" t="s" s="2">
@@ -3033,19 +2993,19 @@
         <v>78</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="O15" t="s" s="2">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="P15" t="s" s="2">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="Q15" t="s" s="2">
         <v>78</v>
@@ -3070,11 +3030,11 @@
         <v>78</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="Z15" s="2"/>
       <c r="AA15" t="s" s="2">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="AB15" t="s" s="2">
         <v>78</v>
@@ -3092,7 +3052,7 @@
         <v>78</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="AH15" t="s" s="2">
         <v>76</v>
@@ -3101,10 +3061,10 @@
         <v>77</v>
       </c>
       <c r="AJ15" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK15" t="s" s="2">
         <v>97</v>
-      </c>
-      <c r="AK15" t="s" s="2">
-        <v>98</v>
       </c>
     </row>
     <row r="16">
@@ -3112,14 +3072,14 @@
         <v>3</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="C16" t="s" s="2">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" t="s" s="2">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="F16" s="2"/>
       <c r="G16" t="s" s="2">
@@ -3138,19 +3098,19 @@
         <v>86</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="O16" t="s" s="2">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="P16" t="s" s="2">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="Q16" t="s" s="2">
         <v>78</v>
@@ -3175,13 +3135,13 @@
         <v>78</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="Z16" t="s" s="2">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="AA16" t="s" s="2">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="AB16" t="s" s="2">
         <v>78</v>
@@ -3199,7 +3159,7 @@
         <v>78</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="AH16" t="s" s="2">
         <v>85</v>
@@ -3208,10 +3168,10 @@
         <v>85</v>
       </c>
       <c r="AJ16" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK16" t="s" s="2">
         <v>97</v>
-      </c>
-      <c r="AK16" t="s" s="2">
-        <v>98</v>
       </c>
     </row>
     <row r="17">
@@ -3219,10 +3179,10 @@
         <v>3</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="C17" t="s" s="2">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" t="s" s="2">
@@ -3245,19 +3205,19 @@
         <v>86</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="O17" t="s" s="2">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="P17" t="s" s="2">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="Q17" t="s" s="2">
         <v>78</v>
@@ -3306,7 +3266,7 @@
         <v>78</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="AH17" t="s" s="2">
         <v>76</v>
@@ -3315,10 +3275,10 @@
         <v>85</v>
       </c>
       <c r="AJ17" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK17" t="s" s="2">
         <v>97</v>
-      </c>
-      <c r="AK17" t="s" s="2">
-        <v>156</v>
       </c>
     </row>
     <row r="18">
@@ -3326,10 +3286,10 @@
         <v>3</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="C18" t="s" s="2">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" t="s" s="2">
@@ -3352,16 +3312,16 @@
         <v>86</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="N18" t="s" s="2">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="O18" t="s" s="2">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="P18" s="2"/>
       <c r="Q18" t="s" s="2">
@@ -3411,7 +3371,7 @@
         <v>78</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="AH18" t="s" s="2">
         <v>76</v>
@@ -3420,10 +3380,10 @@
         <v>77</v>
       </c>
       <c r="AJ18" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK18" t="s" s="2">
         <v>97</v>
-      </c>
-      <c r="AK18" t="s" s="2">
-        <v>156</v>
       </c>
     </row>
     <row r="19">
@@ -3431,14 +3391,14 @@
         <v>3</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="C19" t="s" s="2">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" t="s" s="2">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="F19" s="2"/>
       <c r="G19" t="s" s="2">
@@ -3457,19 +3417,19 @@
         <v>86</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="O19" t="s" s="2">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="P19" t="s" s="2">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="Q19" t="s" s="2">
         <v>78</v>
@@ -3518,7 +3478,7 @@
         <v>78</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="AH19" t="s" s="2">
         <v>76</v>
@@ -3527,10 +3487,10 @@
         <v>85</v>
       </c>
       <c r="AJ19" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK19" t="s" s="2">
         <v>97</v>
-      </c>
-      <c r="AK19" t="s" s="2">
-        <v>156</v>
       </c>
     </row>
     <row r="20">
@@ -3538,14 +3498,14 @@
         <v>3</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="C20" t="s" s="2">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" t="s" s="2">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="F20" s="2"/>
       <c r="G20" t="s" s="2">
@@ -3564,19 +3524,19 @@
         <v>86</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="N20" t="s" s="2">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="O20" t="s" s="2">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="P20" t="s" s="2">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="Q20" t="s" s="2">
         <v>78</v>
@@ -3625,7 +3585,7 @@
         <v>78</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="AH20" t="s" s="2">
         <v>76</v>
@@ -3634,10 +3594,10 @@
         <v>85</v>
       </c>
       <c r="AJ20" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK20" t="s" s="2">
         <v>97</v>
-      </c>
-      <c r="AK20" t="s" s="2">
-        <v>98</v>
       </c>
     </row>
     <row r="21">
@@ -3645,10 +3605,10 @@
         <v>3</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="C21" t="s" s="2">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" t="s" s="2">
@@ -3671,16 +3631,16 @@
         <v>86</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="O21" t="s" s="2">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="P21" s="2"/>
       <c r="Q21" t="s" s="2">
@@ -3730,7 +3690,7 @@
         <v>78</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="AH21" t="s" s="2">
         <v>76</v>
@@ -3739,10 +3699,10 @@
         <v>85</v>
       </c>
       <c r="AJ21" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK21" t="s" s="2">
         <v>97</v>
-      </c>
-      <c r="AK21" t="s" s="2">
-        <v>98</v>
       </c>
     </row>
     <row r="22">
@@ -3750,10 +3710,10 @@
         <v>3</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="C22" t="s" s="2">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="D22" s="2"/>
       <c r="E22" t="s" s="2">
@@ -3776,19 +3736,17 @@
         <v>86</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>220</v>
-      </c>
-      <c r="O22" t="s" s="2">
-        <v>154</v>
-      </c>
+        <v>214</v>
+      </c>
+      <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="Q22" t="s" s="2">
         <v>78</v>
@@ -3837,7 +3795,7 @@
         <v>78</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="AH22" t="s" s="2">
         <v>76</v>
@@ -3846,10 +3804,10 @@
         <v>77</v>
       </c>
       <c r="AJ22" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK22" t="s" s="2">
         <v>97</v>
-      </c>
-      <c r="AK22" t="s" s="2">
-        <v>156</v>
       </c>
     </row>
     <row r="23">
@@ -3857,10 +3815,10 @@
         <v>3</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="C23" t="s" s="2">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" t="s" s="2">
@@ -3883,19 +3841,19 @@
         <v>86</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="O23" t="s" s="2">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="P23" t="s" s="2">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="Q23" t="s" s="2">
         <v>78</v>
@@ -3944,7 +3902,7 @@
         <v>78</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="AH23" t="s" s="2">
         <v>76</v>
@@ -3953,10 +3911,10 @@
         <v>85</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="24">
@@ -3964,10 +3922,10 @@
         <v>3</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="C24" t="s" s="2">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s" s="2">
@@ -3990,19 +3948,19 @@
         <v>78</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="O24" t="s" s="2">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="P24" t="s" s="2">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="Q24" t="s" s="2">
         <v>78</v>
@@ -4027,13 +3985,13 @@
         <v>78</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="Z24" t="s" s="2">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="AA24" t="s" s="2">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="AB24" t="s" s="2">
         <v>78</v>
@@ -4051,7 +4009,7 @@
         <v>78</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="AH24" t="s" s="2">
         <v>76</v>
@@ -4060,10 +4018,10 @@
         <v>85</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="25">
@@ -4071,14 +4029,14 @@
         <v>3</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="C25" t="s" s="2">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="F25" s="2"/>
       <c r="G25" t="s" s="2">
@@ -4097,19 +4055,19 @@
         <v>78</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="O25" t="s" s="2">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="P25" t="s" s="2">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="Q25" t="s" s="2">
         <v>78</v>
@@ -4134,13 +4092,13 @@
         <v>78</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="Z25" t="s" s="2">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="AA25" t="s" s="2">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="AB25" t="s" s="2">
         <v>78</v>
@@ -4158,7 +4116,7 @@
         <v>78</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="AH25" t="s" s="2">
         <v>76</v>
@@ -4167,10 +4125,10 @@
         <v>77</v>
       </c>
       <c r="AJ25" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK25" t="s" s="2">
         <v>97</v>
-      </c>
-      <c r="AK25" t="s" s="2">
-        <v>98</v>
       </c>
     </row>
     <row r="26">
@@ -4178,10 +4136,10 @@
         <v>3</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="C26" t="s" s="2">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s" s="2">
@@ -4204,19 +4162,19 @@
         <v>78</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="O26" t="s" s="2">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="P26" t="s" s="2">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="Q26" t="s" s="2">
         <v>78</v>
@@ -4265,7 +4223,7 @@
         <v>78</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="AH26" t="s" s="2">
         <v>76</v>
@@ -4274,10 +4232,10 @@
         <v>77</v>
       </c>
       <c r="AJ26" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK26" t="s" s="2">
         <v>97</v>
-      </c>
-      <c r="AK26" t="s" s="2">
-        <v>98</v>
       </c>
     </row>
     <row r="27">
@@ -4285,10 +4243,10 @@
         <v>3</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="C27" t="s" s="2">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" t="s" s="2">
@@ -4311,16 +4269,16 @@
         <v>78</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="O27" t="s" s="2">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="P27" s="2"/>
       <c r="Q27" t="s" s="2">
@@ -4346,13 +4304,13 @@
         <v>78</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="Z27" t="s" s="2">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="AA27" t="s" s="2">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="AB27" t="s" s="2">
         <v>78</v>
@@ -4370,7 +4328,7 @@
         <v>78</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="AH27" t="s" s="2">
         <v>76</v>
@@ -4379,10 +4337,10 @@
         <v>85</v>
       </c>
       <c r="AJ27" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK27" t="s" s="2">
         <v>97</v>
-      </c>
-      <c r="AK27" t="s" s="2">
-        <v>98</v>
       </c>
     </row>
     <row r="28">
@@ -4390,10 +4348,10 @@
         <v>3</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="C28" t="s" s="2">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" t="s" s="2">
@@ -4416,19 +4374,19 @@
         <v>78</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="O28" t="s" s="2">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="P28" t="s" s="2">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="Q28" t="s" s="2">
         <v>78</v>
@@ -4453,13 +4411,13 @@
         <v>78</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="Z28" t="s" s="2">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="AA28" t="s" s="2">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="AB28" t="s" s="2">
         <v>78</v>
@@ -4477,7 +4435,7 @@
         <v>78</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="AH28" t="s" s="2">
         <v>76</v>
@@ -4486,10 +4444,10 @@
         <v>85</v>
       </c>
       <c r="AJ28" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK28" t="s" s="2">
         <v>97</v>
-      </c>
-      <c r="AK28" t="s" s="2">
-        <v>98</v>
       </c>
     </row>
     <row r="29">
@@ -4497,10 +4455,10 @@
         <v>3</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="C29" t="s" s="2">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" t="s" s="2">
@@ -4523,16 +4481,16 @@
         <v>78</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="O29" t="s" s="2">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="P29" s="2"/>
       <c r="Q29" t="s" s="2">
@@ -4582,7 +4540,7 @@
         <v>78</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="AH29" t="s" s="2">
         <v>76</v>
@@ -4591,10 +4549,10 @@
         <v>85</v>
       </c>
       <c r="AJ29" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK29" t="s" s="2">
         <v>97</v>
-      </c>
-      <c r="AK29" t="s" s="2">
-        <v>156</v>
       </c>
     </row>
     <row r="30">
@@ -4602,10 +4560,10 @@
         <v>3</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="C30" t="s" s="2">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="D30" s="2"/>
       <c r="E30" t="s" s="2">
@@ -4628,16 +4586,16 @@
         <v>78</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="O30" t="s" s="2">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="P30" s="2"/>
       <c r="Q30" t="s" s="2">
@@ -4687,7 +4645,7 @@
         <v>78</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="AH30" t="s" s="2">
         <v>76</v>
@@ -4696,10 +4654,10 @@
         <v>85</v>
       </c>
       <c r="AJ30" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK30" t="s" s="2">
         <v>97</v>
-      </c>
-      <c r="AK30" t="s" s="2">
-        <v>156</v>
       </c>
     </row>
     <row r="31">
@@ -4707,10 +4665,10 @@
         <v>3</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="C31" t="s" s="2">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" t="s" s="2">
@@ -4733,19 +4691,19 @@
         <v>78</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="O31" t="s" s="2">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="P31" t="s" s="2">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="Q31" t="s" s="2">
         <v>78</v>
@@ -4794,7 +4752,7 @@
         <v>78</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="AH31" t="s" s="2">
         <v>76</v>
@@ -4803,10 +4761,10 @@
         <v>77</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>97</v>
+        <v>78</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>281</v>
+        <v>275</v>
       </c>
     </row>
     <row r="32">
@@ -4814,10 +4772,10 @@
         <v>3</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="C32" t="s" s="2">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="D32" s="2"/>
       <c r="E32" t="s" s="2">
@@ -4840,13 +4798,13 @@
         <v>78</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="O32" s="2"/>
       <c r="P32" s="2"/>
@@ -4897,7 +4855,7 @@
         <v>78</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="AH32" t="s" s="2">
         <v>76</v>
@@ -4917,14 +4875,14 @@
         <v>3</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="C33" t="s" s="2">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" t="s" s="2">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F33" s="2"/>
       <c r="G33" t="s" s="2">
@@ -4943,16 +4901,16 @@
         <v>78</v>
       </c>
       <c r="L33" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="M33" t="s" s="2">
         <v>130</v>
       </c>
-      <c r="M33" t="s" s="2">
-        <v>131</v>
-      </c>
       <c r="N33" t="s" s="2">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="O33" t="s" s="2">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="P33" s="2"/>
       <c r="Q33" t="s" s="2">
@@ -4990,19 +4948,19 @@
         <v>78</v>
       </c>
       <c r="AC33" t="s" s="2">
-        <v>134</v>
+        <v>78</v>
       </c>
       <c r="AD33" t="s" s="2">
-        <v>135</v>
+        <v>78</v>
       </c>
       <c r="AE33" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>136</v>
+        <v>78</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="AH33" t="s" s="2">
         <v>76</v>
@@ -5011,10 +4969,10 @@
         <v>77</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>97</v>
+        <v>78</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>138</v>
+        <v>134</v>
       </c>
     </row>
     <row r="34">
@@ -5022,14 +4980,14 @@
         <v>3</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="C34" t="s" s="2">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" t="s" s="2">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="F34" s="2"/>
       <c r="G34" t="s" s="2">
@@ -5048,19 +5006,19 @@
         <v>86</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="O34" t="s" s="2">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="P34" t="s" s="2">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="Q34" t="s" s="2">
         <v>78</v>
@@ -5109,7 +5067,7 @@
         <v>78</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="AH34" t="s" s="2">
         <v>76</v>
@@ -5118,10 +5076,10 @@
         <v>77</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>97</v>
+        <v>78</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>138</v>
+        <v>134</v>
       </c>
     </row>
     <row r="35">
@@ -5129,10 +5087,10 @@
         <v>3</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="C35" t="s" s="2">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="D35" s="2"/>
       <c r="E35" t="s" s="2">
@@ -5155,17 +5113,15 @@
         <v>78</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>298</v>
-      </c>
-      <c r="O35" t="s" s="2">
-        <v>299</v>
-      </c>
+        <v>292</v>
+      </c>
+      <c r="O35" s="2"/>
       <c r="P35" s="2"/>
       <c r="Q35" t="s" s="2">
         <v>78</v>
@@ -5214,7 +5170,7 @@
         <v>78</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="AH35" t="s" s="2">
         <v>76</v>
@@ -5223,10 +5179,10 @@
         <v>85</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>301</v>
+        <v>97</v>
       </c>
     </row>
     <row r="36">
@@ -5234,10 +5190,10 @@
         <v>3</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="C36" t="s" s="2">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="D36" s="2"/>
       <c r="E36" t="s" s="2">
@@ -5260,17 +5216,15 @@
         <v>78</v>
       </c>
       <c r="L36" t="s" s="2">
+        <v>290</v>
+      </c>
+      <c r="M36" t="s" s="2">
+        <v>295</v>
+      </c>
+      <c r="N36" t="s" s="2">
         <v>296</v>
       </c>
-      <c r="M36" t="s" s="2">
-        <v>303</v>
-      </c>
-      <c r="N36" t="s" s="2">
-        <v>304</v>
-      </c>
-      <c r="O36" t="s" s="2">
-        <v>299</v>
-      </c>
+      <c r="O36" s="2"/>
       <c r="P36" s="2"/>
       <c r="Q36" t="s" s="2">
         <v>78</v>
@@ -5319,7 +5273,7 @@
         <v>78</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="AH36" t="s" s="2">
         <v>76</v>
@@ -5328,10 +5282,10 @@
         <v>85</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>301</v>
+        <v>97</v>
       </c>
     </row>
     <row r="37">
@@ -5339,10 +5293,10 @@
         <v>3</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>305</v>
+        <v>297</v>
       </c>
       <c r="C37" t="s" s="2">
-        <v>305</v>
+        <v>297</v>
       </c>
       <c r="D37" s="2"/>
       <c r="E37" t="s" s="2">
@@ -5365,19 +5319,19 @@
         <v>78</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>306</v>
+        <v>298</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>307</v>
+        <v>299</v>
       </c>
       <c r="O37" t="s" s="2">
-        <v>308</v>
+        <v>300</v>
       </c>
       <c r="P37" t="s" s="2">
-        <v>309</v>
+        <v>301</v>
       </c>
       <c r="Q37" t="s" s="2">
         <v>78</v>
@@ -5402,13 +5356,13 @@
         <v>78</v>
       </c>
       <c r="Y37" t="s" s="2">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="Z37" t="s" s="2">
-        <v>310</v>
+        <v>302</v>
       </c>
       <c r="AA37" t="s" s="2">
-        <v>311</v>
+        <v>303</v>
       </c>
       <c r="AB37" t="s" s="2">
         <v>78</v>
@@ -5426,7 +5380,7 @@
         <v>78</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>305</v>
+        <v>297</v>
       </c>
       <c r="AH37" t="s" s="2">
         <v>76</v>
@@ -5435,10 +5389,10 @@
         <v>85</v>
       </c>
       <c r="AJ37" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK37" t="s" s="2">
         <v>97</v>
-      </c>
-      <c r="AK37" t="s" s="2">
-        <v>98</v>
       </c>
     </row>
     <row r="38">
@@ -5446,10 +5400,10 @@
         <v>3</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>312</v>
+        <v>304</v>
       </c>
       <c r="C38" t="s" s="2">
-        <v>312</v>
+        <v>304</v>
       </c>
       <c r="D38" s="2"/>
       <c r="E38" t="s" s="2">
@@ -5472,19 +5426,19 @@
         <v>78</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>313</v>
+        <v>305</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>314</v>
+        <v>306</v>
       </c>
       <c r="O38" t="s" s="2">
-        <v>315</v>
+        <v>307</v>
       </c>
       <c r="P38" t="s" s="2">
-        <v>316</v>
+        <v>308</v>
       </c>
       <c r="Q38" t="s" s="2">
         <v>78</v>
@@ -5509,13 +5463,13 @@
         <v>78</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="Z38" t="s" s="2">
-        <v>317</v>
+        <v>309</v>
       </c>
       <c r="AA38" t="s" s="2">
-        <v>318</v>
+        <v>310</v>
       </c>
       <c r="AB38" t="s" s="2">
         <v>78</v>
@@ -5533,7 +5487,7 @@
         <v>78</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>312</v>
+        <v>304</v>
       </c>
       <c r="AH38" t="s" s="2">
         <v>76</v>
@@ -5542,10 +5496,10 @@
         <v>77</v>
       </c>
       <c r="AJ38" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK38" t="s" s="2">
         <v>97</v>
-      </c>
-      <c r="AK38" t="s" s="2">
-        <v>98</v>
       </c>
     </row>
     <row r="39">
@@ -5553,10 +5507,10 @@
         <v>3</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>319</v>
+        <v>311</v>
       </c>
       <c r="C39" t="s" s="2">
-        <v>319</v>
+        <v>311</v>
       </c>
       <c r="D39" s="2"/>
       <c r="E39" t="s" s="2">
@@ -5579,19 +5533,17 @@
         <v>78</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>320</v>
+        <v>312</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>321</v>
+        <v>313</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>322</v>
-      </c>
-      <c r="O39" t="s" s="2">
-        <v>323</v>
-      </c>
+        <v>314</v>
+      </c>
+      <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
-        <v>324</v>
+        <v>315</v>
       </c>
       <c r="Q39" t="s" s="2">
         <v>78</v>
@@ -5640,7 +5592,7 @@
         <v>78</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>319</v>
+        <v>311</v>
       </c>
       <c r="AH39" t="s" s="2">
         <v>76</v>
@@ -5649,10 +5601,10 @@
         <v>85</v>
       </c>
       <c r="AJ39" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK39" t="s" s="2">
         <v>97</v>
-      </c>
-      <c r="AK39" t="s" s="2">
-        <v>325</v>
       </c>
     </row>
     <row r="40">
@@ -5660,10 +5612,10 @@
         <v>3</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>326</v>
+        <v>316</v>
       </c>
       <c r="C40" t="s" s="2">
-        <v>326</v>
+        <v>316</v>
       </c>
       <c r="D40" s="2"/>
       <c r="E40" t="s" s="2">
@@ -5686,17 +5638,15 @@
         <v>78</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>327</v>
+        <v>317</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>328</v>
-      </c>
-      <c r="O40" t="s" s="2">
-        <v>329</v>
-      </c>
+        <v>318</v>
+      </c>
+      <c r="O40" s="2"/>
       <c r="P40" s="2"/>
       <c r="Q40" t="s" s="2">
         <v>78</v>
@@ -5745,7 +5695,7 @@
         <v>78</v>
       </c>
       <c r="AG40" t="s" s="2">
-        <v>326</v>
+        <v>316</v>
       </c>
       <c r="AH40" t="s" s="2">
         <v>76</v>
@@ -5754,10 +5704,10 @@
         <v>85</v>
       </c>
       <c r="AJ40" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK40" t="s" s="2">
         <v>97</v>
-      </c>
-      <c r="AK40" t="s" s="2">
-        <v>98</v>
       </c>
     </row>
     <row r="41">
@@ -5765,10 +5715,10 @@
         <v>3</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>330</v>
+        <v>319</v>
       </c>
       <c r="C41" t="s" s="2">
-        <v>330</v>
+        <v>319</v>
       </c>
       <c r="D41" s="2"/>
       <c r="E41" t="s" s="2">
@@ -5791,16 +5741,16 @@
         <v>86</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>331</v>
+        <v>320</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>332</v>
+        <v>321</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>333</v>
+        <v>322</v>
       </c>
       <c r="O41" t="s" s="2">
-        <v>334</v>
+        <v>323</v>
       </c>
       <c r="P41" s="2"/>
       <c r="Q41" t="s" s="2">
@@ -5850,7 +5800,7 @@
         <v>78</v>
       </c>
       <c r="AG41" t="s" s="2">
-        <v>330</v>
+        <v>319</v>
       </c>
       <c r="AH41" t="s" s="2">
         <v>76</v>
@@ -5859,10 +5809,10 @@
         <v>77</v>
       </c>
       <c r="AJ41" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK41" t="s" s="2">
         <v>97</v>
-      </c>
-      <c r="AK41" t="s" s="2">
-        <v>156</v>
       </c>
     </row>
     <row r="42">
@@ -5870,10 +5820,10 @@
         <v>3</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>335</v>
+        <v>324</v>
       </c>
       <c r="C42" t="s" s="2">
-        <v>335</v>
+        <v>324</v>
       </c>
       <c r="D42" s="2"/>
       <c r="E42" t="s" s="2">
@@ -5896,16 +5846,16 @@
         <v>86</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>336</v>
+        <v>325</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>337</v>
+        <v>326</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>338</v>
+        <v>327</v>
       </c>
       <c r="O42" t="s" s="2">
-        <v>339</v>
+        <v>328</v>
       </c>
       <c r="P42" s="2"/>
       <c r="Q42" t="s" s="2">
@@ -5955,7 +5905,7 @@
         <v>78</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>335</v>
+        <v>324</v>
       </c>
       <c r="AH42" t="s" s="2">
         <v>76</v>
@@ -5964,10 +5914,10 @@
         <v>77</v>
       </c>
       <c r="AJ42" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK42" t="s" s="2">
         <v>97</v>
-      </c>
-      <c r="AK42" t="s" s="2">
-        <v>156</v>
       </c>
     </row>
     <row r="43">
@@ -5975,10 +5925,10 @@
         <v>3</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>340</v>
+        <v>329</v>
       </c>
       <c r="C43" t="s" s="2">
-        <v>340</v>
+        <v>329</v>
       </c>
       <c r="D43" s="2"/>
       <c r="E43" t="s" s="2">
@@ -6001,19 +5951,19 @@
         <v>86</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>341</v>
+        <v>330</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>342</v>
+        <v>331</v>
       </c>
       <c r="O43" t="s" s="2">
-        <v>343</v>
+        <v>332</v>
       </c>
       <c r="P43" t="s" s="2">
-        <v>344</v>
+        <v>333</v>
       </c>
       <c r="Q43" t="s" s="2">
         <v>78</v>
@@ -6062,7 +6012,7 @@
         <v>78</v>
       </c>
       <c r="AG43" t="s" s="2">
-        <v>340</v>
+        <v>329</v>
       </c>
       <c r="AH43" t="s" s="2">
         <v>76</v>
@@ -6071,10 +6021,10 @@
         <v>77</v>
       </c>
       <c r="AJ43" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK43" t="s" s="2">
         <v>97</v>
-      </c>
-      <c r="AK43" t="s" s="2">
-        <v>98</v>
       </c>
     </row>
     <row r="44">
@@ -6082,10 +6032,10 @@
         <v>3</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>345</v>
+        <v>334</v>
       </c>
       <c r="C44" t="s" s="2">
-        <v>345</v>
+        <v>334</v>
       </c>
       <c r="D44" s="2"/>
       <c r="E44" t="s" s="2">
@@ -6108,13 +6058,13 @@
         <v>78</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="O44" s="2"/>
       <c r="P44" s="2"/>
@@ -6165,7 +6115,7 @@
         <v>78</v>
       </c>
       <c r="AG44" t="s" s="2">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="AH44" t="s" s="2">
         <v>76</v>
@@ -6185,14 +6135,14 @@
         <v>3</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>346</v>
+        <v>335</v>
       </c>
       <c r="C45" t="s" s="2">
-        <v>346</v>
+        <v>335</v>
       </c>
       <c r="D45" s="2"/>
       <c r="E45" t="s" s="2">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F45" s="2"/>
       <c r="G45" t="s" s="2">
@@ -6211,16 +6161,16 @@
         <v>78</v>
       </c>
       <c r="L45" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="M45" t="s" s="2">
         <v>130</v>
       </c>
-      <c r="M45" t="s" s="2">
-        <v>131</v>
-      </c>
       <c r="N45" t="s" s="2">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="O45" t="s" s="2">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="P45" s="2"/>
       <c r="Q45" t="s" s="2">
@@ -6258,19 +6208,19 @@
         <v>78</v>
       </c>
       <c r="AC45" t="s" s="2">
-        <v>134</v>
+        <v>78</v>
       </c>
       <c r="AD45" t="s" s="2">
-        <v>135</v>
+        <v>78</v>
       </c>
       <c r="AE45" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>136</v>
+        <v>78</v>
       </c>
       <c r="AG45" t="s" s="2">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="AH45" t="s" s="2">
         <v>76</v>
@@ -6279,10 +6229,10 @@
         <v>77</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>97</v>
+        <v>78</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>138</v>
+        <v>134</v>
       </c>
     </row>
     <row r="46">
@@ -6290,14 +6240,14 @@
         <v>3</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>347</v>
+        <v>336</v>
       </c>
       <c r="C46" t="s" s="2">
-        <v>347</v>
+        <v>336</v>
       </c>
       <c r="D46" s="2"/>
       <c r="E46" t="s" s="2">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="F46" s="2"/>
       <c r="G46" t="s" s="2">
@@ -6316,19 +6266,19 @@
         <v>86</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="O46" t="s" s="2">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="P46" t="s" s="2">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="Q46" t="s" s="2">
         <v>78</v>
@@ -6377,7 +6327,7 @@
         <v>78</v>
       </c>
       <c r="AG46" t="s" s="2">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="AH46" t="s" s="2">
         <v>76</v>
@@ -6386,10 +6336,10 @@
         <v>77</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>97</v>
+        <v>78</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>138</v>
+        <v>134</v>
       </c>
     </row>
     <row r="47">
@@ -6397,10 +6347,10 @@
         <v>3</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>348</v>
+        <v>337</v>
       </c>
       <c r="C47" t="s" s="2">
-        <v>348</v>
+        <v>337</v>
       </c>
       <c r="D47" s="2"/>
       <c r="E47" t="s" s="2">
@@ -6423,19 +6373,19 @@
         <v>86</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>349</v>
+        <v>338</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>350</v>
+        <v>339</v>
       </c>
       <c r="O47" t="s" s="2">
-        <v>351</v>
+        <v>340</v>
       </c>
       <c r="P47" t="s" s="2">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="Q47" t="s" s="2">
         <v>78</v>
@@ -6460,13 +6410,13 @@
         <v>78</v>
       </c>
       <c r="Y47" t="s" s="2">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="Z47" t="s" s="2">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="AA47" t="s" s="2">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="AB47" t="s" s="2">
         <v>78</v>
@@ -6484,7 +6434,7 @@
         <v>78</v>
       </c>
       <c r="AG47" t="s" s="2">
-        <v>348</v>
+        <v>337</v>
       </c>
       <c r="AH47" t="s" s="2">
         <v>85</v>
@@ -6493,10 +6443,10 @@
         <v>85</v>
       </c>
       <c r="AJ47" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK47" t="s" s="2">
         <v>97</v>
-      </c>
-      <c r="AK47" t="s" s="2">
-        <v>98</v>
       </c>
     </row>
     <row r="48">
@@ -6504,10 +6454,10 @@
         <v>3</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>352</v>
+        <v>341</v>
       </c>
       <c r="C48" t="s" s="2">
-        <v>352</v>
+        <v>341</v>
       </c>
       <c r="D48" s="2"/>
       <c r="E48" t="s" s="2">
@@ -6530,19 +6480,19 @@
         <v>86</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>353</v>
+        <v>342</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="O48" t="s" s="2">
-        <v>354</v>
+        <v>343</v>
       </c>
       <c r="P48" t="s" s="2">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="Q48" t="s" s="2">
         <v>78</v>
@@ -6591,7 +6541,7 @@
         <v>78</v>
       </c>
       <c r="AG48" t="s" s="2">
-        <v>352</v>
+        <v>341</v>
       </c>
       <c r="AH48" t="s" s="2">
         <v>76</v>
@@ -6600,10 +6550,10 @@
         <v>85</v>
       </c>
       <c r="AJ48" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK48" t="s" s="2">
         <v>97</v>
-      </c>
-      <c r="AK48" t="s" s="2">
-        <v>98</v>
       </c>
     </row>
     <row r="49">
@@ -6611,10 +6561,10 @@
         <v>3</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>355</v>
+        <v>344</v>
       </c>
       <c r="C49" t="s" s="2">
-        <v>355</v>
+        <v>344</v>
       </c>
       <c r="D49" s="2"/>
       <c r="E49" t="s" s="2">
@@ -6637,19 +6587,19 @@
         <v>78</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>356</v>
+        <v>345</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>357</v>
+        <v>346</v>
       </c>
       <c r="O49" t="s" s="2">
-        <v>358</v>
+        <v>347</v>
       </c>
       <c r="P49" t="s" s="2">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="Q49" t="s" s="2">
         <v>78</v>
@@ -6674,13 +6624,13 @@
         <v>78</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="Z49" t="s" s="2">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="AA49" t="s" s="2">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="AB49" t="s" s="2">
         <v>78</v>
@@ -6698,7 +6648,7 @@
         <v>78</v>
       </c>
       <c r="AG49" t="s" s="2">
-        <v>355</v>
+        <v>344</v>
       </c>
       <c r="AH49" t="s" s="2">
         <v>76</v>
@@ -6707,10 +6657,10 @@
         <v>85</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="50">
@@ -6718,14 +6668,14 @@
         <v>3</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>359</v>
+        <v>348</v>
       </c>
       <c r="C50" t="s" s="2">
-        <v>359</v>
+        <v>348</v>
       </c>
       <c r="D50" s="2"/>
       <c r="E50" t="s" s="2">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="F50" s="2"/>
       <c r="G50" t="s" s="2">
@@ -6744,19 +6694,19 @@
         <v>78</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>360</v>
+        <v>349</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="O50" t="s" s="2">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="P50" t="s" s="2">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="Q50" t="s" s="2">
         <v>78</v>
@@ -6781,13 +6731,13 @@
         <v>78</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="Z50" t="s" s="2">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="AA50" t="s" s="2">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="AB50" t="s" s="2">
         <v>78</v>
@@ -6805,7 +6755,7 @@
         <v>78</v>
       </c>
       <c r="AG50" t="s" s="2">
-        <v>359</v>
+        <v>348</v>
       </c>
       <c r="AH50" t="s" s="2">
         <v>76</v>
@@ -6814,10 +6764,10 @@
         <v>77</v>
       </c>
       <c r="AJ50" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK50" t="s" s="2">
         <v>97</v>
-      </c>
-      <c r="AK50" t="s" s="2">
-        <v>98</v>
       </c>
     </row>
     <row r="51">
@@ -6825,10 +6775,10 @@
         <v>3</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>361</v>
+        <v>350</v>
       </c>
       <c r="C51" t="s" s="2">
-        <v>361</v>
+        <v>350</v>
       </c>
       <c r="D51" s="2"/>
       <c r="E51" t="s" s="2">
@@ -6854,16 +6804,16 @@
         <v>79</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>362</v>
+        <v>351</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>363</v>
+        <v>352</v>
       </c>
       <c r="O51" t="s" s="2">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="P51" t="s" s="2">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="Q51" t="s" s="2">
         <v>78</v>
@@ -6912,7 +6862,7 @@
         <v>78</v>
       </c>
       <c r="AG51" t="s" s="2">
-        <v>361</v>
+        <v>350</v>
       </c>
       <c r="AH51" t="s" s="2">
         <v>76</v>
@@ -6924,7 +6874,7 @@
         <v>78</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>78</v>
+        <v>97</v>
       </c>
     </row>
   </sheetData>

--- a/main/ig/all-profiles.xlsx
+++ b/main/ig/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-23T10:26:57+00:00</t>
+    <t>2024-10-10T08:49:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -458,7 +458,7 @@
 </t>
   </si>
   <si>
-    <t>recommandé : identifiant métier unique attribué à cette mesure/réponse</t>
+    <t>(recommandé) identifiant métier unique attribué à cette mesure/réponse</t>
   </si>
   <si>
     <t>A unique identifier assigned to this observation.</t>
@@ -510,7 +510,7 @@
     <t>Observation.status</t>
   </si>
   <si>
-    <t>requis : statut de la mesure/réponse: final | corrected | entered-in-error</t>
+    <t>Statut de la mesure/réponse: final | corrected | entered-in-error</t>
   </si>
   <si>
     <t>The status of the result value.</t>
@@ -538,8 +538,7 @@
 </t>
   </si>
   <si>
-    <t>recommandé : Grande catégorie qui peut servir à identifier les différentes sources d'observations en télésurveillance: vital-sign : constantes physiologiques, signes vitaux, mesures | 
-survey : réponse à questionnaire ou score |  activity : activité physique (#pas, #longueurs de piscine, ...)</t>
+    <t>(recommandé) Grande catégorie qui peut servir à identifier les différentes sources d'observations en télésurveillance: vital-sign : constantes physiologiques, signes vitaux, mesures | survey : réponse à questionnaire ou score |  activity : activité physique (#pas, #longueurs de piscine, ...)</t>
   </si>
   <si>
     <t>A code that classifies the general type of observation being made.</t>
@@ -561,7 +560,7 @@
 </t>
   </si>
   <si>
-    <t>requis : le type précis d'observation</t>
+    <t>Le code descriptif de l'observation</t>
   </si>
   <si>
     <t>Describes what was observed. Sometimes this is called the observation "name".</t>
@@ -585,11 +584,11 @@
     <t>Observation.subject</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Patient)
+    <t xml:space="preserve">Reference(https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-patient)
 </t>
   </si>
   <si>
-    <t>requis : La référence au patient télésuivi : pointe vers la ressource Patient accessible sur un serveur ou présente dans le Bundle courant</t>
+    <t>La référence au patient télésuivi : pointe vers la ressource Patient accessible sur un serveur ou présente dans le Bundle courant</t>
   </si>
   <si>
     <t>The patient, or group of patients, location, or device this observation is about and into whose record the observation is placed. If the actual focus of the observation is different from the subject (or a sample of, part, or region of the subject), the `focus` element or the `code` itself specifies the actual focus of the observation.</t>
@@ -628,7 +627,7 @@
 </t>
   </si>
   <si>
-    <t>optionnel : référence à une visite d'un thérapeute au patient</t>
+    <t>Référence à une visite d'un thérapeute au patient</t>
   </si>
   <si>
     <t>The healthcare event  (e.g. a patient and healthcare provider interaction) during which this observation is made.</t>
@@ -651,7 +650,7 @@
 Period</t>
   </si>
   <si>
-    <t>requis : le temps clinique ou physiologique de l'observation : par exemple la journée pour un comptage de pas, ou la date et heure de pesage</t>
+    <t>Le temps clinique ou physiologique de l'observation : par exemple la journée pour un comptage de pas, ou la date et heure de pesage</t>
   </si>
   <si>
     <t>The time or time-period the observed value is asserted as being true. For biological subjects - e.g. human patients - this is usually called the "physiologically relevant time". This is usually either the time of the procedure or of specimen collection, but very often the source of the date/time is not known, only the date/time itself.</t>
@@ -670,7 +669,7 @@
 </t>
   </si>
   <si>
-    <t>recommandé : date et heure de mise à disposition de cette version de l'observation</t>
+    <t>(recommandé) date et heure de mise à disposition de cette version de l'observation</t>
   </si>
   <si>
     <t>The date and time this version of the observation was made available to providers, typically after the results have been reviewed and verified.</t>
@@ -686,7 +685,7 @@
 </t>
   </si>
   <si>
-    <t>recommandé : La personne qui a réalisé l'observation, ou saisi ou validé le résultat (un professionnel de santé, un aidant, le patient ...)</t>
+    <t>(recommandé) La personne qui a réalisé l'observation, ou saisi ou validé le résultat (un professionnel de santé, un aidant, le patient ...)</t>
   </si>
   <si>
     <t>Who was responsible for asserting the observed value as "true".</t>
@@ -702,7 +701,7 @@
 CodeableConceptstringbooleanintegerRangeRatioSampledDatatimedateTimePeriod</t>
   </si>
   <si>
-    <t>recommandé : le résultat de l'observation. En principe présent. Peut être absent pour signifier une question laissée sans réponse, ou pour effacer un résultat précédemment communiqué dans une version précédente de la ressource</t>
+    <t>(recommandé) le résultat de l'observation. En principe présent. Peut être absent pour signifier une question laissée sans réponse, ou pour effacer un résultat précédemment communiqué dans une version précédente de la ressource</t>
   </si>
   <si>
     <t>The information determined as a result of making the observation, if the information has a simple value.</t>
@@ -721,7 +720,7 @@
     <t>Observation.dataAbsentReason</t>
   </si>
   <si>
-    <t>recommandé : à renseigner dans le cas où l'élément 'value' est absent</t>
+    <t>(recommandé) à renseigner dans le cas où l'élément 'value' est absent</t>
   </si>
   <si>
     <t>Provides a reason why the expected value in the element Observation.value[x] is missing.</t>
@@ -754,7 +753,7 @@
 </t>
   </si>
   <si>
-    <t>optionnel : utilisable pour représenter un niveau d'alerte déclenché par cette observation</t>
+    <t>Utilisable pour représenter un niveau d'alerte déclenché par cette observation</t>
   </si>
   <si>
     <t>A categorical assessment of an observation value.  For example, high, low, normal.</t>
@@ -779,7 +778,7 @@
 </t>
   </si>
   <si>
-    <t>optionnel : commentaire sur cette observation</t>
+    <t>Commentaire sur cette observation</t>
   </si>
   <si>
     <t>Comments about the observation or the results.</t>
@@ -794,7 +793,7 @@
     <t>Observation.bodySite</t>
   </si>
   <si>
-    <t>optionnel : partie du corps spécifiquement concernée par l'observation</t>
+    <t>Partie du corps spécifiquement concernée par l'observation</t>
   </si>
   <si>
     <t>Indicates the site on the subject's body where the observation was made (i.e. the target site).</t>
@@ -813,7 +812,7 @@
     <t>Observation.method</t>
   </si>
   <si>
-    <t xml:space="preserve">optionnel : la méthode de mesure employée </t>
+    <t>La méthode de mesure employée</t>
   </si>
   <si>
     <t>Indicates the mechanism used to perform the observation.</t>
@@ -854,7 +853,7 @@
 </t>
   </si>
   <si>
-    <t>optionnel : le dispositif de mesure employé</t>
+    <t>Le dispositif de mesure employé</t>
   </si>
   <si>
     <t>The device used to generate the observation data.</t>
@@ -870,7 +869,7 @@
 </t>
   </si>
   <si>
-    <t>optionnel : un intervalle de référence applicable à ce patient pour cette observation</t>
+    <t>Un intervalle de référence applicable à ce patient pour cette observation</t>
   </si>
   <si>
     <t>Guidance on how to interpret the value by comparison to a normal or recommended range.  Multiple reference ranges are interpreted as an "OR".   In other words, to represent two distinct target populations, two `referenceRange` elements would be used.</t>
@@ -1044,7 +1043,7 @@
 </t>
   </si>
   <si>
-    <t>optionnel : la ou les ressources qui contiennent les réponses du questionnaire</t>
+    <t>La ou les ressources qui contiennent les réponses du questionnaire</t>
   </si>
   <si>
     <t>The target resource that represents a measurement from which this observation value is derived. For example, a calculated anion gap or a fetal measurement based on an ultrasound image.</t>
@@ -1056,7 +1055,7 @@
     <t>Observation.component</t>
   </si>
   <si>
-    <t>conditionnel : présent pour certaines observations combinant deux mesures concomitantes (exemple pression artérielle systolique et diastolique), et dans ce cas l'élément Observation.value n'est en général pas présent</t>
+    <t>(conditionnel) présent pour certaines observations combinant deux mesures concomitantes, et dans ce cas l'élément Observation.value n'est en général pas présent</t>
   </si>
   <si>
     <t>Some observations have multiple component observations.  These component observations are expressed as separate code value pairs that share the same attributes.  Examples include systolic and diastolic component observations for blood pressure measurement and multiple component observations for genetics observations.</t>

--- a/main/ig/all-profiles.xlsx
+++ b/main/ig/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-10T08:49:37+00:00</t>
+    <t>2024-10-10T08:54:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/all-profiles.xlsx
+++ b/main/ig/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-04-03T07:57:06+00:00</t>
+    <t>2025-12-03T10:56:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -356,7 +356,7 @@
     <t>A human language.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/languages</t>
+    <t>http://hl7.org/fhir/ValueSet/languages|4.0.1</t>
   </si>
   <si>
     <t>Resource.language</t>
@@ -474,7 +474,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(CarePlan|DeviceRequest|ImmunizationRecommendation|MedicationRequest|NutritionOrder|ServiceRequest)
+    <t xml:space="preserve">Reference(CarePlan|4.0.1|DeviceRequest|4.0.1|ImmunizationRecommendation|4.0.1|MedicationRequest|4.0.1|NutritionOrder|4.0.1|ServiceRequest|4.0.1)
 </t>
   </si>
   <si>
@@ -494,7 +494,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(MedicationAdministration|MedicationDispense|MedicationStatement|Procedure|Immunization|ImagingStudy)
+    <t xml:space="preserve">Reference(MedicationAdministration|4.0.1|MedicationDispense|4.0.1|MedicationStatement|4.0.1|Procedure|4.0.1|Immunization|4.0.1|ImagingStudy|4.0.1)
 </t>
   </si>
   <si>
@@ -578,7 +578,7 @@
     <t>Codes identifying names of simple observations.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/observation-codes</t>
+    <t>http://hl7.org/fhir/ValueSet/observation-codes|4.0.1</t>
   </si>
   <si>
     <t>Observation.subject</t>
@@ -603,7 +603,7 @@
     <t>Observation.focus</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Resource)
+    <t xml:space="preserve">Reference(Resource|4.0.1)
 </t>
   </si>
   <si>
@@ -623,7 +623,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Encounter)
+    <t xml:space="preserve">Reference(Encounter|4.0.1)
 </t>
   </si>
   <si>
@@ -681,7 +681,7 @@
     <t>Observation.performer</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Practitioner|PractitionerRole|Organization|CareTeam|Patient|RelatedPerson)
+    <t xml:space="preserve">Reference(Practitioner|4.0.1|PractitionerRole|4.0.1|Organization|4.0.1|CareTeam|4.0.1|Patient|4.0.1|RelatedPerson|4.0.1)
 </t>
   </si>
   <si>
@@ -739,7 +739,7 @@
     <t>Codes specifying why the result (`Observation.value[x]`) is missing.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/data-absent-reason</t>
+    <t>http://hl7.org/fhir/ValueSet/data-absent-reason|4.0.1</t>
   </si>
   <si>
     <t xml:space="preserve">obs-6
@@ -768,7 +768,7 @@
     <t>Codes identifying interpretations of observations.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/observation-interpretation</t>
+    <t>http://hl7.org/fhir/ValueSet/observation-interpretation|4.0.1</t>
   </si>
   <si>
     <t>Observation.note</t>
@@ -806,7 +806,7 @@
     <t>Codes describing anatomical locations. May include laterality.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/body-site</t>
+    <t>http://hl7.org/fhir/ValueSet/body-site|4.0.1</t>
   </si>
   <si>
     <t>Observation.method</t>
@@ -827,13 +827,13 @@
     <t>Methods for simple observations.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/observation-methods</t>
+    <t>http://hl7.org/fhir/ValueSet/observation-methods|4.0.1</t>
   </si>
   <si>
     <t>Observation.specimen</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Specimen)
+    <t xml:space="preserve">Reference(Specimen|4.0.1)
 </t>
   </si>
   <si>
@@ -849,7 +849,7 @@
     <t>Observation.device</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Device|DeviceMetric)
+    <t xml:space="preserve">Reference(Device|4.0.1|DeviceMetric|4.0.1)
 </t>
   </si>
   <si>
@@ -930,7 +930,7 @@
     <t>Observation.referenceRange.low</t>
   </si>
   <si>
-    <t xml:space="preserve">Quantity {SimpleQuantity}
+    <t xml:space="preserve">Quantity {SimpleQuantity|4.0.1}
 </t>
   </si>
   <si>
@@ -971,7 +971,7 @@
     <t>Code for the meaning of a reference range.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/referencerange-meaning</t>
+    <t>http://hl7.org/fhir/ValueSet/referencerange-meaning|4.0.1</t>
   </si>
   <si>
     <t>Observation.referenceRange.appliesTo</t>
@@ -992,7 +992,7 @@
     <t>Codes identifying the population the reference range applies to.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/referencerange-appliesto</t>
+    <t>http://hl7.org/fhir/ValueSet/referencerange-appliesto|4.0.1</t>
   </si>
   <si>
     <t>Observation.referenceRange.age</t>
@@ -1023,7 +1023,7 @@
     <t>Observation.hasMember</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Observation|QuestionnaireResponse|MolecularSequence)
+    <t xml:space="preserve">Reference(Observation|4.0.1|QuestionnaireResponse|4.0.1|MolecularSequence|4.0.1)
 </t>
   </si>
   <si>
@@ -1444,17 +1444,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="15.81640625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="44.67578125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="44.67578125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="12.66015625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="39.9140625" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="6.77734375" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="4.9453125" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="16.27734375" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="13.55859375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="38.30078125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="38.30078125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="10.8515625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="34.21875" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="5.80859375" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="4.23828125" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="4.65625" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="13.953125" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="14.4453125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="12.3828125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1463,21 +1463,21 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="8.97265625" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="9.953125" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.171875" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="19.03515625" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="18.859375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="63.70703125" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="60.2890625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="22.71875" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="20.59375" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="17.21484375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="41.01953125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="10.5546875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="7.6953125" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="8.53515625" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="14.72265625" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="15.13671875" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="16.3203125" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="16.16796875" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="54.6171875" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="51.6875" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="5.44140625" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="19.4765625" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="17.65625" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="14.7578125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="12.359375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="35.16796875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="9.046875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
   </cols>
   <sheetData>

--- a/main/ig/all-profiles.xlsx
+++ b/main/ig/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-03T10:56:11+00:00</t>
+    <t>2025-12-03T10:56:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/all-profiles.xlsx
+++ b/main/ig/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-03T10:56:15+00:00</t>
+    <t>2025-12-03T10:56:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/all-profiles.xlsx
+++ b/main/ig/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-03T10:56:47+00:00</t>
+    <t>2025-12-03T11:18:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
